--- a/coarse/data/car_parameters.xlsx
+++ b/coarse/data/car_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmutel/Code/coarse/coarse/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DA819C-2016-3442-A05D-60465E441C61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE247579-0B3B-FB42-BDEA-1936D28A04DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="36900" windowHeight="20960" tabRatio="938" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="938" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Car parameters" sheetId="22" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="255">
   <si>
     <t>kg</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>km</t>
-  </si>
-  <si>
-    <t>Source</t>
   </si>
   <si>
     <t>W</t>
@@ -798,6 +795,12 @@
   </si>
   <si>
     <t>2040 high</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>source</t>
   </si>
 </sst>
 </file>
@@ -1337,10 +1340,10 @@
   <dimension ref="A1:N200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="M177" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1361,62 +1364,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A1" s="8"/>
+      <c r="A1" s="8" t="s">
+        <v>253</v>
+      </c>
       <c r="B1" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>252</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>253</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>4</v>
+        <v>254</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F2" s="14">
         <v>200000</v>
@@ -1440,25 +1445,27 @@
         <v>3</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="B3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F3" s="14">
         <v>12000</v>
@@ -1482,27 +1489,27 @@
         <v>3</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F4" s="15">
         <v>780</v>
@@ -1529,23 +1536,25 @@
         <v>0</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="B5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F5" s="15">
         <v>950</v>
@@ -1572,23 +1581,25 @@
         <v>0</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="B6" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F6" s="15">
         <v>1150</v>
@@ -1615,23 +1626,25 @@
         <v>0</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="B7" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F7" s="15">
         <v>1300</v>
@@ -1658,23 +1671,25 @@
         <v>0</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="B8" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F8" s="15">
         <v>1500</v>
@@ -1701,23 +1716,25 @@
         <v>0</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
+      <c r="A9" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="B9" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F9" s="15">
         <v>1350</v>
@@ -1744,23 +1761,25 @@
         <v>0</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+      <c r="A10" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="B10" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F10" s="15">
         <v>1250</v>
@@ -1787,23 +1806,25 @@
         <v>0</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
+      <c r="A11" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="B11" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F11" s="18">
         <v>0.05</v>
@@ -1825,23 +1846,25 @@
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
+      <c r="A12" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="B12" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F12" s="18">
         <v>0.1</v>
@@ -1863,23 +1886,25 @@
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+      <c r="A13" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="B13" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F13" s="15">
         <v>60</v>
@@ -1906,23 +1931,25 @@
         <v>1</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
+      <c r="A14" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="B14" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F14" s="15">
         <v>65</v>
@@ -1949,23 +1976,25 @@
         <v>1</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
+      <c r="A15" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="B15" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F15" s="15">
         <v>70</v>
@@ -1992,23 +2021,25 @@
         <v>1</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
+      <c r="A16" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="B16" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F16" s="15">
         <v>80</v>
@@ -2035,23 +2066,25 @@
         <v>1</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N16" s="8"/>
     </row>
     <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
+      <c r="A17" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="B17" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F17" s="15">
         <v>65</v>
@@ -2078,23 +2111,25 @@
         <v>1</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N17" s="8"/>
     </row>
     <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
+      <c r="A18" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="B18" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F18" s="15">
         <v>75</v>
@@ -2121,23 +2156,25 @@
         <v>1</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N18" s="8"/>
     </row>
     <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
+      <c r="A19" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="B19" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F19" s="6">
         <v>1.9</v>
@@ -2158,26 +2195,28 @@
         <v>2.1</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N19" s="4"/>
     </row>
     <row r="20" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
+      <c r="A20" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="B20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F20" s="6">
         <v>2.1</v>
@@ -2198,26 +2237,28 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N20" s="4"/>
     </row>
     <row r="21" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
+      <c r="A21" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="B21" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F21" s="6">
         <v>2.2000000000000002</v>
@@ -2238,26 +2279,28 @@
         <v>2.4</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N21" s="4"/>
     </row>
     <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
+      <c r="A22" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="B22" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F22" s="6">
         <v>2.2999999999999998</v>
@@ -2278,26 +2321,28 @@
         <v>2.5</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
+      <c r="A23" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="B23" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="E23" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F23" s="2">
         <v>2.4</v>
@@ -2318,26 +2363,28 @@
         <v>2.6</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N23" s="4"/>
     </row>
     <row r="24" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
+      <c r="A24" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="B24" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F24" s="6">
         <v>2.7</v>
@@ -2358,26 +2405,28 @@
         <v>3</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N24" s="4"/>
     </row>
     <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
+      <c r="A25" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="B25" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F25" s="6">
         <v>2.8</v>
@@ -2398,26 +2447,28 @@
         <v>3.4</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N25" s="4"/>
     </row>
     <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
+      <c r="A26" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="B26" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F26" s="7">
         <v>0.33</v>
@@ -2441,23 +2492,25 @@
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N26" s="8"/>
     </row>
     <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
+      <c r="A27" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="B27" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F27" s="7">
         <v>0.3</v>
@@ -2481,23 +2534,25 @@
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N27" s="8"/>
     </row>
     <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
+      <c r="A28" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="B28" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F28" s="7">
         <v>0.34</v>
@@ -2521,23 +2576,25 @@
       </c>
       <c r="L28" s="8"/>
       <c r="M28" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N28" s="8"/>
     </row>
     <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
+      <c r="A29" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="B29" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F29" s="7">
         <v>0.38</v>
@@ -2561,23 +2618,25 @@
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N29" s="8"/>
     </row>
     <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
+      <c r="A30" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="B30" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F30" s="17">
         <v>0.01</v>
@@ -2599,23 +2658,25 @@
       </c>
       <c r="L30" s="8"/>
       <c r="M30" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N30" s="8"/>
     </row>
     <row r="31" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
+      <c r="A31" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="B31" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F31" s="15">
         <v>1.8</v>
@@ -2636,26 +2697,28 @@
         <v>4</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N31" s="8"/>
     </row>
     <row r="32" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
+      <c r="A32" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="B32" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F32" s="15">
         <v>75</v>
@@ -2679,23 +2742,25 @@
         <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N32" s="8"/>
     </row>
     <row r="33" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
+      <c r="A33" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="B33" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F33" s="15">
         <v>20</v>
@@ -2719,25 +2784,25 @@
         <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N33" s="8"/>
     </row>
     <row r="34" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F34" s="15">
         <v>0.85</v>
@@ -2759,23 +2824,25 @@
       </c>
       <c r="L34" s="8"/>
       <c r="M34" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N34" s="8"/>
     </row>
     <row r="35" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
+      <c r="A35" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B35" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F35" s="15">
         <v>0.8</v>
@@ -2797,23 +2864,25 @@
       </c>
       <c r="L35" s="8"/>
       <c r="M35" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N35" s="8"/>
     </row>
     <row r="36" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
+      <c r="A36" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B36" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F36" s="15">
         <f>F34*F37</f>
@@ -2841,23 +2910,25 @@
       </c>
       <c r="L36" s="8"/>
       <c r="M36" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N36" s="8"/>
     </row>
     <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
+      <c r="A37" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B37" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F37" s="15">
         <v>0.85</v>
@@ -2879,23 +2950,25 @@
       </c>
       <c r="L37" s="8"/>
       <c r="M37" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N37" s="8"/>
     </row>
     <row r="38" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
+      <c r="A38" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B38" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F38" s="15">
         <v>0.26</v>
@@ -2917,23 +2990,25 @@
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N38" s="8"/>
     </row>
     <row r="39" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
+      <c r="A39" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B39" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F39" s="15">
         <v>0.25</v>
@@ -2955,23 +3030,25 @@
       </c>
       <c r="L39" s="8"/>
       <c r="M39" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N39" s="8"/>
     </row>
     <row r="40" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
+      <c r="A40" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B40" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F40" s="15">
         <v>0.28999999999999998</v>
@@ -2993,23 +3070,25 @@
       </c>
       <c r="L40" s="8"/>
       <c r="M40" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N40" s="8"/>
     </row>
     <row r="41" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
+      <c r="A41" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B41" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F41" s="15">
         <v>0.33</v>
@@ -3031,23 +3110,25 @@
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N41" s="8"/>
     </row>
     <row r="42" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
+      <c r="A42" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B42" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F42" s="15">
         <v>0.53500000000000003</v>
@@ -3069,23 +3150,25 @@
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N42" s="8"/>
     </row>
     <row r="43" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
+      <c r="A43" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B43" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F43" s="15">
         <v>900</v>
@@ -3106,26 +3189,28 @@
         <v>1200</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N43" s="8"/>
     </row>
     <row r="44" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
+      <c r="A44" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B44" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F44" s="15">
         <v>0.4</v>
@@ -3146,26 +3231,28 @@
         <v>0.34</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N44" s="8"/>
     </row>
     <row r="45" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
+      <c r="A45" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B45" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F45" s="15">
         <v>1</v>
@@ -3186,26 +3273,28 @@
         <v>1</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N45" s="8"/>
     </row>
     <row r="46" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
+      <c r="A46" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B46" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F46" s="15">
         <v>1.1499999999999999</v>
@@ -3227,23 +3316,25 @@
       </c>
       <c r="L46" s="8"/>
       <c r="M46" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N46" s="8"/>
     </row>
     <row r="47" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
+      <c r="A47" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B47" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F47" s="15">
         <v>4.5</v>
@@ -3270,23 +3361,25 @@
         <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N47" s="8"/>
     </row>
     <row r="48" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
+      <c r="A48" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B48" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F48" s="15">
         <v>9</v>
@@ -3313,23 +3406,25 @@
         <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N48" s="8"/>
     </row>
     <row r="49" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
+      <c r="A49" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B49" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F49" s="15">
         <v>6</v>
@@ -3356,23 +3451,25 @@
         <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N49" s="8"/>
     </row>
     <row r="50" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
+      <c r="A50" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B50" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F50" s="15">
         <v>4</v>
@@ -3396,26 +3493,28 @@
         <v>5</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N50" s="8"/>
     </row>
     <row r="51" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="8"/>
+      <c r="A51" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B51" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F51" s="15">
         <v>0.5</v>
@@ -3436,26 +3535,28 @@
         <v>0.75</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N51" s="8"/>
     </row>
     <row r="52" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
+      <c r="A52" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B52" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
@@ -3470,26 +3571,28 @@
         <v>0.75</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N52" s="8"/>
     </row>
     <row r="53" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="8"/>
+      <c r="A53" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B53" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F53" s="15">
         <v>20</v>
@@ -3513,23 +3616,25 @@
         <v>0</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N53" s="8"/>
     </row>
     <row r="54" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
+      <c r="A54" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B54" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
@@ -3547,23 +3652,25 @@
         <v>0</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N54" s="8"/>
     </row>
     <row r="55" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="8"/>
+      <c r="A55" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B55" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F55" s="15">
         <v>0.7</v>
@@ -3584,26 +3691,28 @@
         <v>0.75</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N55" s="8"/>
     </row>
     <row r="56" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="8"/>
+      <c r="A56" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B56" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F56" s="15">
         <v>0.8</v>
@@ -3624,26 +3733,28 @@
         <v>0.85</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N56" s="8"/>
     </row>
     <row r="57" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="8"/>
+      <c r="A57" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B57" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F57" s="15">
         <v>60</v>
@@ -3667,23 +3778,25 @@
         <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N57" s="8"/>
     </row>
     <row r="58" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="8"/>
+      <c r="A58" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B58" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F58" s="15">
         <v>69</v>
@@ -3707,23 +3820,25 @@
         <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N58" s="8"/>
     </row>
     <row r="59" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="8"/>
+      <c r="A59" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B59" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F59" s="15">
         <v>0.4</v>
@@ -3744,26 +3859,28 @@
         <v>0.4</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N59" s="8"/>
     </row>
     <row r="60" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="8"/>
+      <c r="A60" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B60" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F60" s="15">
         <v>0.55000000000000004</v>
@@ -3784,26 +3901,28 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N60" s="8"/>
     </row>
     <row r="61" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="8"/>
+      <c r="A61" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B61" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F61" s="15">
         <v>0.82500000000000007</v>
@@ -3824,26 +3943,28 @@
         <v>0.66</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N61" s="8"/>
     </row>
     <row r="62" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="8"/>
+      <c r="A62" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B62" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F62" s="15">
         <v>35</v>
@@ -3867,23 +3988,25 @@
         <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N62" s="8"/>
     </row>
     <row r="63" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="8"/>
+      <c r="A63" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B63" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F63" s="15">
         <v>82.5</v>
@@ -3907,23 +4030,25 @@
         <v>0</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N63" s="8"/>
     </row>
     <row r="64" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="8"/>
+      <c r="A64" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B64" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F64" s="15">
         <v>55</v>
@@ -3947,23 +4072,25 @@
         <v>0</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N64" s="8"/>
     </row>
     <row r="65" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="8"/>
+      <c r="A65" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B65" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F65" s="15">
         <v>0.75</v>
@@ -3985,25 +4112,27 @@
       </c>
       <c r="L65" s="8"/>
       <c r="M65" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="N65" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="N65" s="8" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="66" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="8"/>
+      <c r="A66" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B66" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F66" s="15">
         <v>1</v>
@@ -4017,25 +4146,27 @@
       <c r="K66" s="15"/>
       <c r="L66" s="8"/>
       <c r="M66" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="N66" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="N66" s="8" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="67" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="8"/>
+      <c r="A67" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B67" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F67" s="15">
         <v>0.4</v>
@@ -4057,25 +4188,27 @@
       </c>
       <c r="L67" s="8"/>
       <c r="M67" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="N67" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="N67" s="8" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="68" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="8"/>
+      <c r="A68" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B68" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F68" s="15">
         <v>0</v>
@@ -4089,22 +4222,24 @@
       <c r="K68" s="15"/>
       <c r="L68" s="8"/>
       <c r="N68" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="8"/>
+      <c r="A69" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B69" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F69" s="15">
         <v>0.75</v>
@@ -4126,27 +4261,27 @@
       </c>
       <c r="L69" s="8"/>
       <c r="M69" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C70" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E70" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F70" s="15">
         <f>F71*1.25</f>
@@ -4170,28 +4305,30 @@
         <v>100</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="8"/>
+      <c r="A71" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="B71" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C71" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E71" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F71" s="15">
         <v>75</v>
@@ -4215,28 +4352,30 @@
         <v>100</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N71" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A72" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="E72" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F72" s="15">
         <v>200</v>
@@ -4262,28 +4401,30 @@
         <v>300</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N72" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A73" s="8"/>
+      <c r="A73" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="B73" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F73" s="15">
         <v>250</v>
@@ -4310,23 +4451,25 @@
       </c>
       <c r="L73" s="8"/>
       <c r="M73" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N73" s="8"/>
     </row>
     <row r="74" spans="1:14" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A74" s="8"/>
+      <c r="A74" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="B74" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F74" s="15">
         <v>300</v>
@@ -4353,23 +4496,25 @@
       </c>
       <c r="L74" s="8"/>
       <c r="M74" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N74" s="8"/>
     </row>
     <row r="75" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="8"/>
+      <c r="A75" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="B75" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F75" s="15">
         <v>320</v>
@@ -4396,23 +4541,25 @@
       </c>
       <c r="L75" s="8"/>
       <c r="M75" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N75" s="8"/>
     </row>
     <row r="76" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="8"/>
+      <c r="A76" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="B76" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F76" s="15">
         <v>350</v>
@@ -4439,23 +4586,25 @@
       </c>
       <c r="L76" s="8"/>
       <c r="M76" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N76" s="8"/>
     </row>
     <row r="77" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A77" s="8"/>
+      <c r="A77" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="B77" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F77" s="15">
         <v>350</v>
@@ -4482,23 +4631,25 @@
       </c>
       <c r="L77" s="8"/>
       <c r="M77" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N77" s="8"/>
     </row>
     <row r="78" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="8"/>
+      <c r="A78" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="B78" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F78" s="15">
         <v>350</v>
@@ -4525,23 +4676,25 @@
       </c>
       <c r="L78" s="8"/>
       <c r="M78" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N78" s="8"/>
     </row>
     <row r="79" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="8"/>
+      <c r="A79" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="B79" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F79" s="15">
         <v>200</v>
@@ -4567,28 +4720,30 @@
         <v>300</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="8"/>
+      <c r="A80" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="B80" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F80" s="15">
         <v>250</v>
@@ -4615,23 +4770,25 @@
       </c>
       <c r="L80" s="8"/>
       <c r="M80" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N80" s="8"/>
     </row>
     <row r="81" spans="1:14" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="8"/>
+      <c r="A81" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="B81" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F81" s="15">
         <v>300</v>
@@ -4658,23 +4815,25 @@
       </c>
       <c r="L81" s="8"/>
       <c r="M81" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N81" s="8"/>
     </row>
     <row r="82" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="8"/>
+      <c r="A82" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="B82" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F82" s="15">
         <v>320</v>
@@ -4701,23 +4860,25 @@
       </c>
       <c r="L82" s="8"/>
       <c r="M82" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N82" s="8"/>
     </row>
     <row r="83" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A83" s="8"/>
+      <c r="A83" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="B83" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F83" s="15">
         <v>350</v>
@@ -4744,23 +4905,25 @@
       </c>
       <c r="L83" s="8"/>
       <c r="M83" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N83" s="8"/>
     </row>
     <row r="84" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A84" s="8"/>
+      <c r="A84" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="B84" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F84" s="15">
         <v>350</v>
@@ -4787,23 +4950,25 @@
       </c>
       <c r="L84" s="8"/>
       <c r="M84" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N84" s="8"/>
     </row>
     <row r="85" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A85" s="8"/>
+      <c r="A85" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="B85" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F85" s="15">
         <v>350</v>
@@ -4830,23 +4995,25 @@
       </c>
       <c r="L85" s="8"/>
       <c r="M85" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N85" s="8"/>
     </row>
     <row r="86" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="8"/>
+      <c r="A86" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="B86" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F86" s="15">
         <v>0</v>
@@ -4859,28 +5026,30 @@
       <c r="J86" s="15"/>
       <c r="K86" s="15"/>
       <c r="L86" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N86" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="8"/>
+      <c r="A87" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="B87" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F87" s="15">
         <v>1</v>
@@ -4897,28 +5066,30 @@
         <v>1</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N87" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="8"/>
+      <c r="A88" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="B88" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F88" s="26">
         <v>1</v>
@@ -4939,30 +5110,30 @@
         <v>1</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N88" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F89" s="1">
         <v>150</v>
@@ -4989,23 +5160,25 @@
         <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N89" s="8"/>
     </row>
     <row r="90" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A90" s="8"/>
+      <c r="A90" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B90" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F90" s="1">
         <v>250</v>
@@ -5032,23 +5205,25 @@
         <v>0</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N90" s="8"/>
     </row>
     <row r="91" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="8"/>
+      <c r="A91" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B91" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F91" s="1">
         <v>300</v>
@@ -5075,23 +5250,25 @@
         <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N91" s="8"/>
     </row>
     <row r="92" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A92" s="8"/>
+      <c r="A92" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B92" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F92" s="1">
         <v>400</v>
@@ -5118,23 +5295,25 @@
         <v>0</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N92" s="8"/>
     </row>
     <row r="93" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A93" s="8"/>
+      <c r="A93" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B93" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F93" s="1">
         <v>450</v>
@@ -5161,23 +5340,25 @@
         <v>0</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N93" s="8"/>
     </row>
     <row r="94" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A94" s="8"/>
+      <c r="A94" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B94" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F94" s="1">
         <v>400</v>
@@ -5204,23 +5385,25 @@
         <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N94" s="8"/>
     </row>
     <row r="95" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A95" s="8"/>
+      <c r="A95" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B95" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F95" s="1">
         <v>60</v>
@@ -5244,23 +5427,25 @@
         <v>0</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N95" s="8"/>
     </row>
     <row r="96" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A96" s="8"/>
+      <c r="A96" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B96" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F96" s="1">
         <v>60</v>
@@ -5284,23 +5469,25 @@
         <v>0</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N96" s="8"/>
     </row>
     <row r="97" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A97" s="8"/>
+      <c r="A97" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B97" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F97" s="1">
         <v>60</v>
@@ -5324,23 +5511,25 @@
         <v>0</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N97" s="8"/>
     </row>
     <row r="98" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A98" s="8"/>
+      <c r="A98" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B98" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F98" s="1">
         <v>80</v>
@@ -5364,23 +5553,25 @@
         <v>0</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N98" s="8"/>
     </row>
     <row r="99" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A99" s="8"/>
+      <c r="A99" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B99" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F99" s="1">
         <v>100</v>
@@ -5404,23 +5595,25 @@
         <v>0</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N99" s="8"/>
     </row>
     <row r="100" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A100" s="8"/>
+      <c r="A100" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B100" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F100" s="1">
         <v>100</v>
@@ -5444,22 +5637,25 @@
         <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N100" s="8"/>
     </row>
     <row r="101" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A101" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B101" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F101" s="15">
         <v>0.85</v>
@@ -5484,23 +5680,25 @@
       </c>
       <c r="L101" s="8"/>
       <c r="M101" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N101" s="8"/>
     </row>
     <row r="102" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A102" s="8"/>
+      <c r="A102" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B102" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F102" s="15">
         <v>0</v>
@@ -5518,25 +5716,27 @@
       </c>
       <c r="L102" s="8"/>
       <c r="M102" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N102" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A103" s="8"/>
+      <c r="A103" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B103" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F103" s="15">
         <v>0.88</v>
@@ -5561,23 +5761,25 @@
       </c>
       <c r="L103" s="8"/>
       <c r="M103" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N103" s="8"/>
     </row>
     <row r="104" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A104" s="8"/>
+      <c r="A104" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B104" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F104" s="15">
         <v>0.8</v>
@@ -5599,23 +5801,25 @@
       </c>
       <c r="L104" s="8"/>
       <c r="M104" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N104" s="8"/>
     </row>
     <row r="105" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A105" s="8"/>
+      <c r="A105" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B105" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F105" s="15">
         <v>0.2</v>
@@ -5636,26 +5840,28 @@
         <v>0.5</v>
       </c>
       <c r="L105" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N105" s="8"/>
     </row>
     <row r="106" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A106" s="8"/>
+      <c r="A106" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B106" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F106" s="15">
         <v>2</v>
@@ -5679,26 +5885,28 @@
         <v>3.4499999999999997</v>
       </c>
       <c r="L106" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N106" s="4"/>
     </row>
     <row r="107" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A107" s="8"/>
+      <c r="A107" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B107" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F107" s="15">
         <v>0.6</v>
@@ -5720,23 +5928,25 @@
       </c>
       <c r="L107" s="8"/>
       <c r="M107" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N107" s="8"/>
     </row>
     <row r="108" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A108" s="8"/>
+      <c r="A108" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B108" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F108" s="15">
         <v>0.5</v>
@@ -5758,23 +5968,25 @@
       </c>
       <c r="L108" s="8"/>
       <c r="M108" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N108" s="8"/>
     </row>
     <row r="109" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A109" s="8"/>
+      <c r="A109" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B109" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F109" s="15"/>
       <c r="G109" s="15"/>
@@ -5790,23 +6002,25 @@
       </c>
       <c r="L109" s="8"/>
       <c r="M109" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N109" s="8"/>
     </row>
     <row r="110" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A110" s="8"/>
+      <c r="A110" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B110" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F110" s="15">
         <v>8</v>
@@ -5828,25 +6042,27 @@
       </c>
       <c r="L110" s="8"/>
       <c r="M110" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N110" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A111" s="8"/>
+      <c r="A111" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B111" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F111" s="15"/>
       <c r="G111" s="15"/>
@@ -5862,25 +6078,27 @@
       </c>
       <c r="L111" s="8"/>
       <c r="M111" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N111" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A112" s="8"/>
+      <c r="A112" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B112" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F112" s="15">
         <v>0.5</v>
@@ -5902,25 +6120,27 @@
       </c>
       <c r="L112" s="8"/>
       <c r="M112" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N112" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A113" s="8"/>
+      <c r="A113" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B113" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F113" s="15"/>
       <c r="G113" s="15"/>
@@ -5936,25 +6156,27 @@
       </c>
       <c r="L113" s="8"/>
       <c r="M113" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N113" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A114" s="8"/>
+      <c r="A114" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B114" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F114" s="15">
         <v>200000</v>
@@ -5975,26 +6197,28 @@
         <v>350000</v>
       </c>
       <c r="L114" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N114" s="8"/>
     </row>
     <row r="115" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A115" s="8"/>
+      <c r="A115" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B115" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F115" s="15"/>
       <c r="G115" s="15"/>
@@ -6009,26 +6233,28 @@
         <v>350000</v>
       </c>
       <c r="L115" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N115" s="8"/>
     </row>
     <row r="116" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A116" s="8"/>
+      <c r="A116" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B116" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F116" s="15">
         <v>150000</v>
@@ -6049,26 +6275,28 @@
         <v>350000</v>
       </c>
       <c r="L116" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N116" s="8"/>
     </row>
     <row r="117" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A117" s="8"/>
+      <c r="A117" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B117" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F117" s="15">
         <v>0.6</v>
@@ -6089,26 +6317,28 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="L117" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N117" s="8"/>
     </row>
     <row r="118" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A118" s="8"/>
+      <c r="A118" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B118" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F118" s="15">
         <v>7.4999999999999997E-2</v>
@@ -6129,26 +6359,28 @@
         <v>0.08</v>
       </c>
       <c r="L118" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N118" s="8"/>
     </row>
     <row r="119" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A119" s="8"/>
+      <c r="A119" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B119" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F119" s="15">
         <v>0.2</v>
@@ -6169,26 +6401,28 @@
         <v>0.22</v>
       </c>
       <c r="L119" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N119" s="8"/>
     </row>
     <row r="120" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A120" s="8"/>
+      <c r="A120" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B120" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F120" s="15">
         <v>25</v>
@@ -6212,23 +6446,25 @@
         <v>0</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N120" s="8"/>
     </row>
     <row r="121" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A121" s="8"/>
+      <c r="A121" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B121" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F121" s="1">
         <v>18</v>
@@ -6255,23 +6491,25 @@
         <v>0</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N121" s="8"/>
     </row>
     <row r="122" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A122" s="8"/>
+      <c r="A122" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B122" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F122" s="1">
         <v>28</v>
@@ -6298,23 +6536,25 @@
         <v>0</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N122" s="8"/>
     </row>
     <row r="123" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A123" s="8"/>
+      <c r="A123" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B123" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F123" s="1">
         <v>33</v>
@@ -6341,23 +6581,25 @@
         <v>0</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N123" s="8"/>
     </row>
     <row r="124" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A124" s="8"/>
+      <c r="A124" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B124" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F124" s="1">
         <v>18</v>
@@ -6384,23 +6626,25 @@
         <v>0</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N124" s="8"/>
     </row>
     <row r="125" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A125" s="8"/>
+      <c r="A125" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B125" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F125" s="1">
         <v>28</v>
@@ -6427,23 +6671,25 @@
         <v>0</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N125" s="8"/>
     </row>
     <row r="126" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A126" s="8"/>
+      <c r="A126" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B126" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F126" s="1">
         <v>33</v>
@@ -6470,23 +6716,25 @@
         <v>0</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N126" s="8"/>
     </row>
     <row r="127" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A127" s="8"/>
+      <c r="A127" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B127" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F127" s="1">
         <v>13</v>
@@ -6513,23 +6761,25 @@
         <v>0</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N127" s="8"/>
     </row>
     <row r="128" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A128" s="8"/>
+      <c r="A128" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B128" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F128" s="1">
         <v>23</v>
@@ -6556,23 +6806,25 @@
         <v>0</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N128" s="8"/>
     </row>
     <row r="129" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A129" s="8"/>
+      <c r="A129" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B129" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F129" s="1">
         <v>28</v>
@@ -6599,23 +6851,25 @@
         <v>0</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N129" s="8"/>
     </row>
     <row r="130" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A130" s="8"/>
+      <c r="A130" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B130" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F130" s="1">
         <v>13</v>
@@ -6642,23 +6896,25 @@
         <v>0</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N130" s="8"/>
     </row>
     <row r="131" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A131" s="8"/>
+      <c r="A131" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B131" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F131" s="1">
         <v>23</v>
@@ -6685,23 +6941,25 @@
         <v>0</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N131" s="8"/>
     </row>
     <row r="132" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A132" s="8"/>
+      <c r="A132" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B132" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F132" s="1">
         <v>28</v>
@@ -6728,23 +6986,25 @@
         <v>0</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N132" s="8"/>
     </row>
     <row r="133" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A133" s="8"/>
+      <c r="A133" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B133" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F133" s="1">
         <v>4</v>
@@ -6771,23 +7031,25 @@
         <v>0</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N133" s="8"/>
     </row>
     <row r="134" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A134" s="8"/>
+      <c r="A134" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B134" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F134" s="1">
         <v>5</v>
@@ -6814,23 +7076,25 @@
         <v>0</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N134" s="8"/>
     </row>
     <row r="135" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A135" s="8"/>
+      <c r="A135" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B135" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F135" s="1">
         <v>6</v>
@@ -6857,25 +7121,25 @@
         <v>0</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N135" s="8"/>
     </row>
     <row r="136" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F136" s="19">
         <f>2.65</f>
@@ -6890,26 +7154,28 @@
       <c r="J136" s="19"/>
       <c r="K136" s="19"/>
       <c r="L136" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N136" s="12"/>
     </row>
     <row r="137" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A137" s="8"/>
+      <c r="A137" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="B137" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F137" s="19">
         <v>3.1375899999999999</v>
@@ -6922,26 +7188,28 @@
       <c r="J137" s="19"/>
       <c r="K137" s="19"/>
       <c r="L137" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N137" s="8"/>
     </row>
     <row r="138" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A138" s="8"/>
+      <c r="A138" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="B138" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F138" s="19">
         <v>3.1833399999999998</v>
@@ -6954,26 +7222,28 @@
       <c r="J138" s="19"/>
       <c r="K138" s="19"/>
       <c r="L138" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N138" s="8"/>
     </row>
     <row r="139" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A139" s="8"/>
+      <c r="A139" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="B139" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F139" s="15">
         <v>8.8500000000000004E-4</v>
@@ -6986,26 +7256,28 @@
       <c r="J139" s="19"/>
       <c r="K139" s="19"/>
       <c r="L139" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N139" s="8"/>
     </row>
     <row r="140" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A140" s="8"/>
+      <c r="A140" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="B140" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F140" s="15">
         <v>1.5999999999999999E-5</v>
@@ -7018,26 +7290,28 @@
       <c r="J140" s="19"/>
       <c r="K140" s="19"/>
       <c r="L140" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N140" s="8"/>
     </row>
     <row r="141" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A141" s="8"/>
+      <c r="A141" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="B141" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F141" s="20">
         <v>9.9900000000000009E-7</v>
@@ -7063,28 +7337,30 @@
         <v>9.9900000000000009E-7</v>
       </c>
       <c r="L141" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="M141" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="N141" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="M141" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="N141" s="8" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="142" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A142" s="8"/>
+      <c r="A142" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="B142" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F142" s="20">
         <v>6.4899999999999995E-7</v>
@@ -7110,28 +7386,30 @@
         <v>6.4899999999999995E-7</v>
       </c>
       <c r="L142" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="M142" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="N142" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="M142" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="N142" s="8" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="143" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A143" s="8"/>
+      <c r="A143" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="B143" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F143" s="20">
         <v>4.7126399999999999E-4</v>
@@ -7157,28 +7435,30 @@
         <v>4.7126399999999999E-4</v>
       </c>
       <c r="L143" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="M143" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="N143" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="M143" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="N143" s="8" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="144" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A144" s="8"/>
+      <c r="A144" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="B144" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F144" s="20">
         <v>7.7270000000000007E-6</v>
@@ -7204,28 +7484,30 @@
         <v>7.7270000000000007E-6</v>
       </c>
       <c r="L144" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="M144" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="N144" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="M144" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="N144" s="8" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="145" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A145" s="8"/>
+      <c r="A145" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="B145" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F145" s="20">
         <v>5.7300000000000006E-7</v>
@@ -7251,28 +7533,30 @@
         <v>5.7300000000000006E-7</v>
       </c>
       <c r="L145" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="M145" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="N145" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="M145" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="N145" s="8" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="146" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A146" s="8"/>
+      <c r="A146" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="B146" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F146" s="20">
         <v>3.7030000000000003E-5</v>
@@ -7298,28 +7582,30 @@
         <v>3.7030000000000003E-5</v>
       </c>
       <c r="L146" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="M146" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="N146" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="M146" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="N146" s="8" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="147" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A147" s="8"/>
+      <c r="A147" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="B147" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F147" s="20">
         <v>7.0779999999999998E-6</v>
@@ -7345,28 +7631,30 @@
         <v>7.0779999999999998E-6</v>
       </c>
       <c r="L147" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="M147" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="N147" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="M147" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="N147" s="8" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="148" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A148" s="8"/>
+      <c r="A148" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="B148" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F148" s="20">
         <v>1.096E-6</v>
@@ -7392,28 +7680,30 @@
         <v>1.096E-6</v>
       </c>
       <c r="L148" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="M148" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="N148" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="M148" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="N148" s="8" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="149" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A149" s="8"/>
+      <c r="A149" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="B149" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F149" s="20">
         <v>2.1926999999999999E-5</v>
@@ -7439,28 +7729,30 @@
         <v>2.1926999999999999E-5</v>
       </c>
       <c r="L149" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="M149" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="N149" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="M149" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="N149" s="8" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="150" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A150" s="8"/>
+      <c r="A150" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="B150" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F150" s="20">
         <v>1.66E-6</v>
@@ -7486,28 +7778,30 @@
         <v>1.66E-6</v>
       </c>
       <c r="L150" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="M150" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="N150" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="M150" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="N150" s="8" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="151" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A151" s="8"/>
+      <c r="A151" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="B151" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F151" s="20">
         <v>1.2799999999999998E-7</v>
@@ -7533,28 +7827,30 @@
         <v>1.2799999999999998E-7</v>
       </c>
       <c r="L151" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N151" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="152" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A152" s="8"/>
+      <c r="A152" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="B152" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F152" s="20">
         <v>1.8300000000000001E-7</v>
@@ -7580,28 +7876,30 @@
         <v>1.8300000000000001E-7</v>
       </c>
       <c r="L152" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M152" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N152" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="153" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A153" s="8"/>
+      <c r="A153" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="B153" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F153" s="20">
         <v>3.1133000000000002E-5</v>
@@ -7627,28 +7925,30 @@
         <v>3.1133000000000002E-5</v>
       </c>
       <c r="L153" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N153" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="154" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A154" s="8"/>
+      <c r="A154" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="B154" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F154" s="20">
         <v>7.6429999999999995E-6</v>
@@ -7674,28 +7974,30 @@
         <v>7.6429999999999995E-6</v>
       </c>
       <c r="L154" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M154" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N154" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A155" s="8"/>
+      <c r="A155" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="B155" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F155" s="20">
         <v>5.0920000000000005E-6</v>
@@ -7721,28 +8023,30 @@
         <v>5.0920000000000005E-6</v>
       </c>
       <c r="L155" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N155" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="156" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A156" s="8"/>
+      <c r="A156" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="B156" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F156" s="20">
         <v>9.9999999999999995E-7</v>
@@ -7768,28 +8072,30 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="L156" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N156" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="157" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A157" s="8"/>
+      <c r="A157" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="B157" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F157" s="20">
         <v>7.4599999999999997E-6</v>
@@ -7815,28 +8121,30 @@
         <v>7.4599999999999997E-6</v>
       </c>
       <c r="L157" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M157" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N157" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="158" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A158" s="8"/>
+      <c r="A158" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="B158" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F158" s="20">
         <v>2.5486999999999998E-5</v>
@@ -7862,28 +8170,30 @@
         <v>2.5486999999999998E-5</v>
       </c>
       <c r="L158" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M158" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N158" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="159" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A159" s="8"/>
+      <c r="A159" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="B159" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F159" s="20">
         <v>8.4957000000000007E-5</v>
@@ -7908,28 +8218,30 @@
         <v>8.4957000000000007E-5</v>
       </c>
       <c r="L159" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M159" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="N159" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="N159" s="8" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="160" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A160" s="8"/>
+      <c r="A160" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="B160" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F160" s="20">
         <v>2.103E-6</v>
@@ -7955,28 +8267,30 @@
         <v>2.103E-6</v>
       </c>
       <c r="L160" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N160" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="161" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A161" s="8"/>
+      <c r="A161" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="B161" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F161" s="20">
         <v>1.4118000000000001E-5</v>
@@ -8002,28 +8316,30 @@
         <v>1.4118000000000001E-5</v>
       </c>
       <c r="L161" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M161" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N161" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="162" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A162" s="8"/>
+      <c r="A162" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="B162" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F162" s="20">
         <v>4.5952900000000002E-4</v>
@@ -8049,28 +8365,30 @@
         <v>4.5952900000000002E-4</v>
       </c>
       <c r="L162" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M162" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N162" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A163" s="8"/>
+      <c r="A163" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="B163" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F163" s="20">
         <v>1.5346000000000002E-5</v>
@@ -8096,28 +8414,30 @@
         <v>1.5346000000000002E-5</v>
       </c>
       <c r="L163" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M163" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N163" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="164" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A164" s="8"/>
+      <c r="A164" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="B164" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F164" s="20">
         <v>1.2279999999999999E-6</v>
@@ -8143,28 +8463,30 @@
         <v>1.2279999999999999E-6</v>
       </c>
       <c r="L164" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M164" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N164" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="165" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A165" s="8"/>
+      <c r="A165" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="B165" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F165" s="20">
         <v>4.3853999999999997E-5</v>
@@ -8190,28 +8512,30 @@
         <v>4.3853999999999997E-5</v>
       </c>
       <c r="L165" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M165" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N165" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="166" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A166" s="8"/>
+      <c r="A166" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="B166" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F166" s="20">
         <v>1.66E-6</v>
@@ -8237,30 +8561,30 @@
         <v>1.66E-6</v>
       </c>
       <c r="L166" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M166" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N166" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A167" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F167" s="22">
         <v>0.05</v>
@@ -8282,23 +8606,25 @@
       </c>
       <c r="L167" s="8"/>
       <c r="M167" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N167" s="8"/>
     </row>
     <row r="168" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A168" s="8"/>
+      <c r="A168" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="B168" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F168" s="22">
         <v>1.2</v>
@@ -8320,25 +8646,27 @@
       </c>
       <c r="L168" s="8"/>
       <c r="M168" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N168" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="169" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A169" s="8"/>
+      <c r="A169" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="B169" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F169" s="22">
         <v>1.3</v>
@@ -8360,25 +8688,27 @@
       </c>
       <c r="L169" s="8"/>
       <c r="M169" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N169" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="170" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A170" s="8"/>
+      <c r="A170" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="B170" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F170" s="22">
         <v>1.4</v>
@@ -8400,25 +8730,27 @@
       </c>
       <c r="L170" s="8"/>
       <c r="M170" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N170" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="171" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A171" s="8"/>
+      <c r="A171" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="B171" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F171" s="22">
         <v>1.6</v>
@@ -8440,25 +8772,27 @@
       </c>
       <c r="L171" s="8"/>
       <c r="M171" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N171" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="172" spans="1:14" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A172" s="8"/>
+      <c r="A172" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="B172" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E172" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F172" s="23">
         <v>12.5</v>
@@ -8479,28 +8813,30 @@
         <v>15</v>
       </c>
       <c r="L172" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M172" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N172" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="173" spans="1:14" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A173" s="8"/>
+      <c r="A173" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="B173" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E173" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F173" s="23">
         <v>16</v>
@@ -8521,28 +8857,30 @@
         <v>18</v>
       </c>
       <c r="L173" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M173" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N173" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="174" spans="1:14" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A174" s="8"/>
+      <c r="A174" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="B174" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E174" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F174" s="24">
         <v>-900</v>
@@ -8563,28 +8901,30 @@
         <v>-720</v>
       </c>
       <c r="L174" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M174" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N174" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="175" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A175" s="8"/>
+      <c r="A175" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="B175" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E175" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F175" s="17">
         <v>2.5000000000000001E-2</v>
@@ -8605,26 +8945,28 @@
         <v>0.04</v>
       </c>
       <c r="L175" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M175" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N175" s="8"/>
     </row>
     <row r="176" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A176" s="8"/>
+      <c r="A176" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="B176" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D176" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C176" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D176" s="10" t="s">
-        <v>155</v>
-      </c>
       <c r="E176" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F176" s="17">
         <v>0.03</v>
@@ -8645,26 +8987,28 @@
         <v>0.04</v>
       </c>
       <c r="L176" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M176" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N176" s="8"/>
     </row>
     <row r="177" spans="1:14" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A177" s="8"/>
+      <c r="A177" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="B177" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E177" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F177" s="23">
         <v>4.5</v>
@@ -8685,28 +9029,30 @@
         <v>9</v>
       </c>
       <c r="L177" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M177" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N177" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="178" spans="1:14" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A178" s="8"/>
+      <c r="A178" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="B178" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F178" s="24">
         <v>160</v>
@@ -8727,28 +9073,30 @@
         <v>135</v>
       </c>
       <c r="L178" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M178" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N178" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="179" spans="1:14" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A179" s="8"/>
+      <c r="A179" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="B179" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F179" s="24">
         <v>50</v>
@@ -8769,28 +9117,30 @@
         <v>36</v>
       </c>
       <c r="L179" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M179" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N179" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="180" spans="1:14" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A180" s="8"/>
+      <c r="A180" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="B180" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F180" s="24">
         <v>22</v>
@@ -8811,26 +9161,28 @@
         <v>36</v>
       </c>
       <c r="L180" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M180" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N180" s="4"/>
     </row>
     <row r="181" spans="1:14" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A181" s="8"/>
+      <c r="A181" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="B181" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F181" s="24">
         <v>33</v>
@@ -8851,28 +9203,30 @@
         <v>54</v>
       </c>
       <c r="L181" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M181" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N181" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="182" spans="1:14" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A182" s="8"/>
+      <c r="A182" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="B182" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F182" s="24"/>
       <c r="G182" s="24"/>
@@ -8887,28 +9241,30 @@
         <v>54</v>
       </c>
       <c r="L182" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M182" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N182" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="183" spans="1:14" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A183" s="8"/>
+      <c r="A183" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="B183" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F183" s="24">
         <v>27</v>
@@ -8929,26 +9285,28 @@
         <v>110</v>
       </c>
       <c r="L183" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M183" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N183" s="4"/>
     </row>
     <row r="184" spans="1:14" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A184" s="8"/>
+      <c r="A184" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="B184" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E184" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F184" s="24">
         <v>40.5</v>
@@ -8969,28 +9327,30 @@
         <v>110</v>
       </c>
       <c r="L184" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M184" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N184" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="185" spans="1:14" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A185" s="8"/>
+      <c r="A185" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="B185" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E185" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F185" s="24">
         <v>54</v>
@@ -9011,26 +9371,28 @@
         <v>110</v>
       </c>
       <c r="L185" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M185" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N185" s="4"/>
     </row>
     <row r="186" spans="1:14" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A186" s="8"/>
+      <c r="A186" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="B186" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E186" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F186" s="24">
         <v>54</v>
@@ -9051,26 +9413,28 @@
         <v>160</v>
       </c>
       <c r="L186" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M186" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N186" s="4"/>
     </row>
     <row r="187" spans="1:14" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A187" s="8"/>
+      <c r="A187" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="B187" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E187" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F187" s="24">
         <v>650</v>
@@ -9091,28 +9455,30 @@
         <v>900</v>
       </c>
       <c r="L187" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M187" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N187" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="188" spans="1:14" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A188" s="8"/>
+      <c r="A188" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="B188" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E188" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F188" s="24">
         <v>300</v>
@@ -9133,28 +9499,30 @@
         <v>450</v>
       </c>
       <c r="L188" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M188" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N188" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A189" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B189" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A189" s="8"/>
-      <c r="B189" s="10" t="s">
-        <v>132</v>
-      </c>
       <c r="C189" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E189" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F189" s="24">
         <v>225</v>
@@ -9175,28 +9543,30 @@
         <v>180</v>
       </c>
       <c r="L189" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M189" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N189" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="190" spans="1:14" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A190" s="8"/>
+      <c r="A190" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="B190" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E190" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F190" s="24">
         <v>180</v>
@@ -9217,28 +9587,30 @@
         <v>180</v>
       </c>
       <c r="L190" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M190" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N190" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="191" spans="1:14" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A191" s="8"/>
+      <c r="A191" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="B191" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E191" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F191" s="24">
         <v>800</v>
@@ -9259,28 +9631,30 @@
         <v>800</v>
       </c>
       <c r="L191" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M191" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N191" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="192" spans="1:14" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A192" s="8"/>
+      <c r="A192" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="B192" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E192" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F192" s="23">
         <v>0.55000000000000004</v>
@@ -9301,26 +9675,28 @@
         <v>0.9</v>
       </c>
       <c r="L192" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M192" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N192" s="4"/>
     </row>
     <row r="193" spans="1:14" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A193" s="8"/>
+      <c r="A193" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="B193" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F193" s="23">
         <v>8</v>
@@ -9341,26 +9717,28 @@
         <v>9</v>
       </c>
       <c r="L193" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M193" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N193" s="4"/>
     </row>
     <row r="194" spans="1:14" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A194" s="8"/>
+      <c r="A194" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="B194" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E194" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F194" s="23">
         <v>0.22399999999999998</v>
@@ -9381,28 +9759,30 @@
         <v>0.24570884250000005</v>
       </c>
       <c r="L194" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M194" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N194" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="195" spans="1:14" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A195" s="8"/>
+      <c r="A195" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="B195" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E195" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F195" s="23">
         <v>0.23566468907932331</v>
@@ -9423,28 +9803,30 @@
         <v>0.25088885999999999</v>
       </c>
       <c r="L195" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M195" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N195" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="196" spans="1:14" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A196" s="8"/>
+      <c r="A196" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="B196" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E196" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F196" s="27">
         <v>0.158782641509434</v>
@@ -9465,28 +9847,30 @@
         <v>0.27390005660377359</v>
       </c>
       <c r="L196" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M196" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N196" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="197" spans="1:14" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A197" s="8"/>
+      <c r="A197" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="B197" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F197" s="27">
         <v>0.12337319277108433</v>
@@ -9507,28 +9891,30 @@
         <v>0.21281875753012044</v>
       </c>
       <c r="L197" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M197" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N197" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="198" spans="1:14" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A198" s="8"/>
+      <c r="A198" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="B198" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E198" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F198" s="27">
         <v>6.9641277641277644E-2</v>
@@ -9549,13 +9935,13 @@
         <v>0.17302632749999999</v>
       </c>
       <c r="L198" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M198" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N198" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.2">
